--- a/社内システムPH１管理/02_基本設計/WebService一覧.xlsx
+++ b/社内システムPH１管理/02_基本設計/WebService一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="3" r:id="rId1"/>
@@ -1512,10 +1512,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>０：正常　-1：異常</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>処理終了</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1940,6 +1936,10 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>０：正常　-999：異常</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2424,6 +2424,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2437,9 +2441,14 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2454,15 +2463,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2789,2323 +2789,2513 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="64" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="64" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="64" t="s">
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="66"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
+      <c r="AO2" s="68"/>
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="68"/>
+      <c r="BA2" s="68"/>
     </row>
     <row r="3" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="67">
+      <c r="B3" s="69">
         <v>1</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68">
+      <c r="C3" s="69"/>
+      <c r="D3" s="70">
         <v>42645</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="67" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
     </row>
     <row r="4" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="69">
+      <c r="B4" s="64">
         <v>2</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70">
+      <c r="C4" s="64"/>
+      <c r="D4" s="65">
         <v>42648</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="69" t="s">
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="64" t="s">
         <v>354</v>
       </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69" t="s">
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64" t="s">
         <v>355</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="69"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="64"/>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="64"/>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="64"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
+      <c r="AH4" s="64"/>
+      <c r="AI4" s="64"/>
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="64"/>
+      <c r="AL4" s="64"/>
+      <c r="AM4" s="64"/>
+      <c r="AN4" s="64"/>
+      <c r="AO4" s="64"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="64"/>
+      <c r="AR4" s="64"/>
+      <c r="AS4" s="64"/>
+      <c r="AT4" s="64"/>
+      <c r="AU4" s="64"/>
+      <c r="AV4" s="64"/>
+      <c r="AW4" s="64"/>
+      <c r="AX4" s="64"/>
+      <c r="AY4" s="64"/>
+      <c r="AZ4" s="64"/>
+      <c r="BA4" s="64"/>
     </row>
     <row r="5" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="69">
+      <c r="B5" s="64">
         <v>3</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="69"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="69"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+      <c r="AL5" s="64"/>
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="64"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="64"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="64"/>
+      <c r="AX5" s="64"/>
+      <c r="AY5" s="64"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
     </row>
     <row r="6" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="69">
+      <c r="B6" s="64">
         <v>4</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
-      <c r="AF6" s="69"/>
-      <c r="AG6" s="69"/>
-      <c r="AH6" s="69"/>
-      <c r="AI6" s="69"/>
-      <c r="AJ6" s="69"/>
-      <c r="AK6" s="69"/>
-      <c r="AL6" s="69"/>
-      <c r="AM6" s="69"/>
-      <c r="AN6" s="69"/>
-      <c r="AO6" s="69"/>
-      <c r="AP6" s="69"/>
-      <c r="AQ6" s="69"/>
-      <c r="AR6" s="69"/>
-      <c r="AS6" s="69"/>
-      <c r="AT6" s="69"/>
-      <c r="AU6" s="69"/>
-      <c r="AV6" s="69"/>
-      <c r="AW6" s="69"/>
-      <c r="AX6" s="69"/>
-      <c r="AY6" s="69"/>
-      <c r="AZ6" s="69"/>
-      <c r="BA6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="64"/>
+      <c r="AB6" s="64"/>
+      <c r="AC6" s="64"/>
+      <c r="AD6" s="64"/>
+      <c r="AE6" s="64"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="64"/>
+      <c r="AN6" s="64"/>
+      <c r="AO6" s="64"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="64"/>
+      <c r="AR6" s="64"/>
+      <c r="AS6" s="64"/>
+      <c r="AT6" s="64"/>
+      <c r="AU6" s="64"/>
+      <c r="AV6" s="64"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
     </row>
     <row r="7" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="69">
+      <c r="B7" s="64">
         <v>5</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="69"/>
-      <c r="AM7" s="69"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="69"/>
-      <c r="AS7" s="69"/>
-      <c r="AT7" s="69"/>
-      <c r="AU7" s="69"/>
-      <c r="AV7" s="69"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="69"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="64"/>
     </row>
     <row r="8" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="69">
+      <c r="B8" s="64">
         <v>6</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-      <c r="AG8" s="69"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="69"/>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="64"/>
+      <c r="AE8" s="64"/>
+      <c r="AF8" s="64"/>
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+      <c r="AL8" s="64"/>
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="64"/>
+      <c r="AO8" s="64"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="64"/>
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="64"/>
+      <c r="AY8" s="64"/>
+      <c r="AZ8" s="64"/>
+      <c r="BA8" s="64"/>
     </row>
     <row r="9" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="69">
+      <c r="B9" s="64">
         <v>7</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="69"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="69"/>
-      <c r="AM9" s="69"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="69"/>
-      <c r="AS9" s="69"/>
-      <c r="AT9" s="69"/>
-      <c r="AU9" s="69"/>
-      <c r="AV9" s="69"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="69"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
     </row>
     <row r="10" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="69">
+      <c r="B10" s="64">
         <v>8</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
+      <c r="AK10" s="64"/>
+      <c r="AL10" s="64"/>
+      <c r="AM10" s="64"/>
+      <c r="AN10" s="64"/>
+      <c r="AO10" s="64"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="64"/>
+      <c r="AR10" s="64"/>
+      <c r="AS10" s="64"/>
+      <c r="AT10" s="64"/>
+      <c r="AU10" s="64"/>
+      <c r="AV10" s="64"/>
+      <c r="AW10" s="64"/>
+      <c r="AX10" s="64"/>
+      <c r="AY10" s="64"/>
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
     </row>
     <row r="11" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="69">
+      <c r="B11" s="64">
         <v>9</v>
       </c>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="64"/>
+      <c r="AF11" s="64"/>
+      <c r="AG11" s="64"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+      <c r="AK11" s="64"/>
+      <c r="AL11" s="64"/>
+      <c r="AM11" s="64"/>
+      <c r="AN11" s="64"/>
+      <c r="AO11" s="64"/>
+      <c r="AP11" s="64"/>
+      <c r="AQ11" s="64"/>
+      <c r="AR11" s="64"/>
+      <c r="AS11" s="64"/>
+      <c r="AT11" s="64"/>
+      <c r="AU11" s="64"/>
+      <c r="AV11" s="64"/>
+      <c r="AW11" s="64"/>
+      <c r="AX11" s="64"/>
+      <c r="AY11" s="64"/>
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
     </row>
     <row r="12" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="69">
+      <c r="B12" s="64">
         <v>10</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="69"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="69"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="64"/>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
     </row>
     <row r="13" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="69">
+      <c r="B13" s="64">
         <v>11</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64"/>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="69">
+      <c r="B14" s="64">
         <v>12</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="69">
+      <c r="B15" s="64">
         <v>13</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-      <c r="AG15" s="69"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="69"/>
-      <c r="AM15" s="69"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="69"/>
-      <c r="AS15" s="69"/>
-      <c r="AT15" s="69"/>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="69"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="64"/>
+      <c r="AZ15" s="64"/>
+      <c r="BA15" s="64"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="69">
+      <c r="B16" s="64">
         <v>14</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-      <c r="AG16" s="69"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="69"/>
-      <c r="AM16" s="69"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="69"/>
-      <c r="AS16" s="69"/>
-      <c r="AT16" s="69"/>
-      <c r="AU16" s="69"/>
-      <c r="AV16" s="69"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="69"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="64"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="64"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="64"/>
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="64"/>
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="64"/>
+      <c r="AZ16" s="64"/>
+      <c r="BA16" s="64"/>
     </row>
     <row r="17" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="69">
+      <c r="B17" s="64">
         <v>15</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="69"/>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
-      <c r="AG17" s="69"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="69"/>
-      <c r="AM17" s="69"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="69"/>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="69"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="64"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="64"/>
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="64"/>
+      <c r="AZ17" s="64"/>
+      <c r="BA17" s="64"/>
     </row>
     <row r="18" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="69">
+      <c r="B18" s="64">
         <v>16</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="69"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="69"/>
-      <c r="AF18" s="69"/>
-      <c r="AG18" s="69"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="69"/>
-      <c r="AM18" s="69"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="69"/>
-      <c r="AS18" s="69"/>
-      <c r="AT18" s="69"/>
-      <c r="AU18" s="69"/>
-      <c r="AV18" s="69"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="69"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="64"/>
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
     </row>
     <row r="19" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="69">
+      <c r="B19" s="64">
         <v>17</v>
       </c>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="69"/>
-      <c r="AF19" s="69"/>
-      <c r="AG19" s="69"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="69"/>
-      <c r="AK19" s="69"/>
-      <c r="AL19" s="69"/>
-      <c r="AM19" s="69"/>
-      <c r="AN19" s="69"/>
-      <c r="AO19" s="69"/>
-      <c r="AP19" s="69"/>
-      <c r="AQ19" s="69"/>
-      <c r="AR19" s="69"/>
-      <c r="AS19" s="69"/>
-      <c r="AT19" s="69"/>
-      <c r="AU19" s="69"/>
-      <c r="AV19" s="69"/>
-      <c r="AW19" s="69"/>
-      <c r="AX19" s="69"/>
-      <c r="AY19" s="69"/>
-      <c r="AZ19" s="69"/>
-      <c r="BA19" s="69"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="64"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="64"/>
+      <c r="AK19" s="64"/>
+      <c r="AL19" s="64"/>
+      <c r="AM19" s="64"/>
+      <c r="AN19" s="64"/>
+      <c r="AO19" s="64"/>
+      <c r="AP19" s="64"/>
+      <c r="AQ19" s="64"/>
+      <c r="AR19" s="64"/>
+      <c r="AS19" s="64"/>
+      <c r="AT19" s="64"/>
+      <c r="AU19" s="64"/>
+      <c r="AV19" s="64"/>
+      <c r="AW19" s="64"/>
+      <c r="AX19" s="64"/>
+      <c r="AY19" s="64"/>
+      <c r="AZ19" s="64"/>
+      <c r="BA19" s="64"/>
     </row>
     <row r="20" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="69">
+      <c r="B20" s="64">
         <v>18</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="69"/>
-      <c r="AF20" s="69"/>
-      <c r="AG20" s="69"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="69"/>
-      <c r="AM20" s="69"/>
-      <c r="AN20" s="69"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="69"/>
-      <c r="AS20" s="69"/>
-      <c r="AT20" s="69"/>
-      <c r="AU20" s="69"/>
-      <c r="AV20" s="69"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="69"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="64"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="64"/>
+      <c r="AI20" s="64"/>
+      <c r="AJ20" s="64"/>
+      <c r="AK20" s="64"/>
+      <c r="AL20" s="64"/>
+      <c r="AM20" s="64"/>
+      <c r="AN20" s="64"/>
+      <c r="AO20" s="64"/>
+      <c r="AP20" s="64"/>
+      <c r="AQ20" s="64"/>
+      <c r="AR20" s="64"/>
+      <c r="AS20" s="64"/>
+      <c r="AT20" s="64"/>
+      <c r="AU20" s="64"/>
+      <c r="AV20" s="64"/>
+      <c r="AW20" s="64"/>
+      <c r="AX20" s="64"/>
+      <c r="AY20" s="64"/>
+      <c r="AZ20" s="64"/>
+      <c r="BA20" s="64"/>
     </row>
     <row r="21" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="69">
+      <c r="B21" s="64">
         <v>19</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="69"/>
-      <c r="AF21" s="69"/>
-      <c r="AG21" s="69"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="69"/>
-      <c r="AM21" s="69"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="69"/>
-      <c r="AS21" s="69"/>
-      <c r="AT21" s="69"/>
-      <c r="AU21" s="69"/>
-      <c r="AV21" s="69"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="69"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="64"/>
+      <c r="AF21" s="64"/>
+      <c r="AG21" s="64"/>
+      <c r="AH21" s="64"/>
+      <c r="AI21" s="64"/>
+      <c r="AJ21" s="64"/>
+      <c r="AK21" s="64"/>
+      <c r="AL21" s="64"/>
+      <c r="AM21" s="64"/>
+      <c r="AN21" s="64"/>
+      <c r="AO21" s="64"/>
+      <c r="AP21" s="64"/>
+      <c r="AQ21" s="64"/>
+      <c r="AR21" s="64"/>
+      <c r="AS21" s="64"/>
+      <c r="AT21" s="64"/>
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="64"/>
+      <c r="AW21" s="64"/>
+      <c r="AX21" s="64"/>
+      <c r="AY21" s="64"/>
+      <c r="AZ21" s="64"/>
+      <c r="BA21" s="64"/>
     </row>
     <row r="22" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="69">
+      <c r="B22" s="64">
         <v>20</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="69"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="69"/>
-      <c r="AD22" s="69"/>
-      <c r="AE22" s="69"/>
-      <c r="AF22" s="69"/>
-      <c r="AG22" s="69"/>
-      <c r="AH22" s="69"/>
-      <c r="AI22" s="69"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="69"/>
-      <c r="AL22" s="69"/>
-      <c r="AM22" s="69"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="69"/>
-      <c r="AS22" s="69"/>
-      <c r="AT22" s="69"/>
-      <c r="AU22" s="69"/>
-      <c r="AV22" s="69"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="69"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="64"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="64"/>
+      <c r="AF22" s="64"/>
+      <c r="AG22" s="64"/>
+      <c r="AH22" s="64"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="64"/>
+      <c r="AK22" s="64"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="64"/>
+      <c r="AO22" s="64"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="64"/>
+      <c r="AV22" s="64"/>
+      <c r="AW22" s="64"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
     </row>
     <row r="23" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="69">
+      <c r="B23" s="64">
         <v>21</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="69"/>
-      <c r="W23" s="69"/>
-      <c r="X23" s="69"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="69"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="69"/>
-      <c r="AG23" s="69"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="69"/>
-      <c r="AM23" s="69"/>
-      <c r="AN23" s="69"/>
-      <c r="AO23" s="69"/>
-      <c r="AP23" s="69"/>
-      <c r="AQ23" s="69"/>
-      <c r="AR23" s="69"/>
-      <c r="AS23" s="69"/>
-      <c r="AT23" s="69"/>
-      <c r="AU23" s="69"/>
-      <c r="AV23" s="69"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="69"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="64"/>
+      <c r="AC23" s="64"/>
+      <c r="AD23" s="64"/>
+      <c r="AE23" s="64"/>
+      <c r="AF23" s="64"/>
+      <c r="AG23" s="64"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="64"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="64"/>
+      <c r="AM23" s="64"/>
+      <c r="AN23" s="64"/>
+      <c r="AO23" s="64"/>
+      <c r="AP23" s="64"/>
+      <c r="AQ23" s="64"/>
+      <c r="AR23" s="64"/>
+      <c r="AS23" s="64"/>
+      <c r="AT23" s="64"/>
+      <c r="AU23" s="64"/>
+      <c r="AV23" s="64"/>
+      <c r="AW23" s="64"/>
+      <c r="AX23" s="64"/>
+      <c r="AY23" s="64"/>
+      <c r="AZ23" s="64"/>
+      <c r="BA23" s="64"/>
     </row>
     <row r="24" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="69">
+      <c r="B24" s="64">
         <v>22</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="69"/>
-      <c r="AD24" s="69"/>
-      <c r="AE24" s="69"/>
-      <c r="AF24" s="69"/>
-      <c r="AG24" s="69"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="69"/>
-      <c r="AM24" s="69"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="69"/>
-      <c r="AS24" s="69"/>
-      <c r="AT24" s="69"/>
-      <c r="AU24" s="69"/>
-      <c r="AV24" s="69"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69"/>
-      <c r="BA24" s="69"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="64"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
+      <c r="AG24" s="64"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
+      <c r="AN24" s="64"/>
+      <c r="AO24" s="64"/>
+      <c r="AP24" s="64"/>
+      <c r="AQ24" s="64"/>
+      <c r="AR24" s="64"/>
+      <c r="AS24" s="64"/>
+      <c r="AT24" s="64"/>
+      <c r="AU24" s="64"/>
+      <c r="AV24" s="64"/>
+      <c r="AW24" s="64"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="64"/>
+      <c r="BA24" s="64"/>
     </row>
     <row r="25" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="69">
+      <c r="B25" s="64">
         <v>23</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="69"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="69"/>
-      <c r="AG25" s="69"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="69"/>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
-      <c r="AS25" s="69"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="69"/>
-      <c r="AV25" s="69"/>
-      <c r="AW25" s="69"/>
-      <c r="AX25" s="69"/>
-      <c r="AY25" s="69"/>
-      <c r="AZ25" s="69"/>
-      <c r="BA25" s="69"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="64"/>
+      <c r="AC25" s="64"/>
+      <c r="AD25" s="64"/>
+      <c r="AE25" s="64"/>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="64"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="64"/>
+      <c r="AM25" s="64"/>
+      <c r="AN25" s="64"/>
+      <c r="AO25" s="64"/>
+      <c r="AP25" s="64"/>
+      <c r="AQ25" s="64"/>
+      <c r="AR25" s="64"/>
+      <c r="AS25" s="64"/>
+      <c r="AT25" s="64"/>
+      <c r="AU25" s="64"/>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64"/>
+      <c r="AY25" s="64"/>
+      <c r="AZ25" s="64"/>
+      <c r="BA25" s="64"/>
     </row>
     <row r="26" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="69">
+      <c r="B26" s="64">
         <v>24</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="69"/>
-      <c r="R26" s="69"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="69"/>
-      <c r="AD26" s="69"/>
-      <c r="AE26" s="69"/>
-      <c r="AF26" s="69"/>
-      <c r="AG26" s="69"/>
-      <c r="AH26" s="69"/>
-      <c r="AI26" s="69"/>
-      <c r="AJ26" s="69"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="69"/>
-      <c r="AW26" s="69"/>
-      <c r="AX26" s="69"/>
-      <c r="AY26" s="69"/>
-      <c r="AZ26" s="69"/>
-      <c r="BA26" s="69"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="64"/>
+      <c r="AZ26" s="64"/>
+      <c r="BA26" s="64"/>
     </row>
     <row r="27" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="69">
+      <c r="B27" s="64">
         <v>25</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="69"/>
-      <c r="AF27" s="69"/>
-      <c r="AG27" s="69"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="69"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="69"/>
-      <c r="AS27" s="69"/>
-      <c r="AT27" s="69"/>
-      <c r="AU27" s="69"/>
-      <c r="AV27" s="69"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="69"/>
-      <c r="BA27" s="69"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="64"/>
+      <c r="AF27" s="64"/>
+      <c r="AG27" s="64"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="64"/>
+      <c r="AJ27" s="64"/>
+      <c r="AK27" s="64"/>
+      <c r="AL27" s="64"/>
+      <c r="AM27" s="64"/>
+      <c r="AN27" s="64"/>
+      <c r="AO27" s="64"/>
+      <c r="AP27" s="64"/>
+      <c r="AQ27" s="64"/>
+      <c r="AR27" s="64"/>
+      <c r="AS27" s="64"/>
+      <c r="AT27" s="64"/>
+      <c r="AU27" s="64"/>
+      <c r="AV27" s="64"/>
+      <c r="AW27" s="64"/>
+      <c r="AX27" s="64"/>
+      <c r="AY27" s="64"/>
+      <c r="AZ27" s="64"/>
+      <c r="BA27" s="64"/>
     </row>
     <row r="28" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="69">
+      <c r="B28" s="64">
         <v>26</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="69"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="69"/>
-      <c r="AS28" s="69"/>
-      <c r="AT28" s="69"/>
-      <c r="AU28" s="69"/>
-      <c r="AV28" s="69"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="64"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="64"/>
+      <c r="AC28" s="64"/>
+      <c r="AD28" s="64"/>
+      <c r="AE28" s="64"/>
+      <c r="AF28" s="64"/>
+      <c r="AG28" s="64"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="64"/>
+      <c r="AJ28" s="64"/>
+      <c r="AK28" s="64"/>
+      <c r="AL28" s="64"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="64"/>
+      <c r="AO28" s="64"/>
+      <c r="AP28" s="64"/>
+      <c r="AQ28" s="64"/>
+      <c r="AR28" s="64"/>
+      <c r="AS28" s="64"/>
+      <c r="AT28" s="64"/>
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="64"/>
     </row>
     <row r="29" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="69">
+      <c r="B29" s="64">
         <v>27</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="69"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="69"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="69"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="69"/>
-      <c r="AV29" s="69"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69"/>
-      <c r="BA29" s="69"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="64"/>
+      <c r="AC29" s="64"/>
+      <c r="AD29" s="64"/>
+      <c r="AE29" s="64"/>
+      <c r="AF29" s="64"/>
+      <c r="AG29" s="64"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="64"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="64"/>
+      <c r="AL29" s="64"/>
+      <c r="AM29" s="64"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="64"/>
+      <c r="AP29" s="64"/>
+      <c r="AQ29" s="64"/>
+      <c r="AR29" s="64"/>
+      <c r="AS29" s="64"/>
+      <c r="AT29" s="64"/>
+      <c r="AU29" s="64"/>
+      <c r="AV29" s="64"/>
+      <c r="AW29" s="64"/>
+      <c r="AX29" s="64"/>
+      <c r="AY29" s="64"/>
+      <c r="AZ29" s="64"/>
+      <c r="BA29" s="64"/>
     </row>
     <row r="30" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="69">
+      <c r="B30" s="64">
         <v>28</v>
       </c>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="69"/>
-      <c r="AF30" s="69"/>
-      <c r="AG30" s="69"/>
-      <c r="AH30" s="69"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="69"/>
-      <c r="AK30" s="69"/>
-      <c r="AL30" s="69"/>
-      <c r="AM30" s="69"/>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="69"/>
-      <c r="AP30" s="69"/>
-      <c r="AQ30" s="69"/>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="69"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="69"/>
-      <c r="BA30" s="69"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="64"/>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="64"/>
+      <c r="AK30" s="64"/>
+      <c r="AL30" s="64"/>
+      <c r="AM30" s="64"/>
+      <c r="AN30" s="64"/>
+      <c r="AO30" s="64"/>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="64"/>
+      <c r="AR30" s="64"/>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="64"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="64"/>
+      <c r="AX30" s="64"/>
+      <c r="AY30" s="64"/>
+      <c r="AZ30" s="64"/>
+      <c r="BA30" s="64"/>
     </row>
     <row r="31" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="69">
+      <c r="B31" s="64">
         <v>29</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="69"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="69"/>
-      <c r="AC31" s="69"/>
-      <c r="AD31" s="69"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="69"/>
-      <c r="AG31" s="69"/>
-      <c r="AH31" s="69"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="69"/>
-      <c r="AK31" s="69"/>
-      <c r="AL31" s="69"/>
-      <c r="AM31" s="69"/>
-      <c r="AN31" s="69"/>
-      <c r="AO31" s="69"/>
-      <c r="AP31" s="69"/>
-      <c r="AQ31" s="69"/>
-      <c r="AR31" s="69"/>
-      <c r="AS31" s="69"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="69"/>
-      <c r="AV31" s="69"/>
-      <c r="AW31" s="69"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="69"/>
-      <c r="BA31" s="69"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="64"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="64"/>
+      <c r="AF31" s="64"/>
+      <c r="AG31" s="64"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
+      <c r="AK31" s="64"/>
+      <c r="AL31" s="64"/>
+      <c r="AM31" s="64"/>
+      <c r="AN31" s="64"/>
+      <c r="AO31" s="64"/>
+      <c r="AP31" s="64"/>
+      <c r="AQ31" s="64"/>
+      <c r="AR31" s="64"/>
+      <c r="AS31" s="64"/>
+      <c r="AT31" s="64"/>
+      <c r="AU31" s="64"/>
+      <c r="AV31" s="64"/>
+      <c r="AW31" s="64"/>
+      <c r="AX31" s="64"/>
+      <c r="AY31" s="64"/>
+      <c r="AZ31" s="64"/>
+      <c r="BA31" s="64"/>
     </row>
     <row r="32" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="69">
+      <c r="B32" s="64">
         <v>30</v>
       </c>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="69"/>
-      <c r="Y32" s="69"/>
-      <c r="Z32" s="69"/>
-      <c r="AA32" s="69"/>
-      <c r="AB32" s="69"/>
-      <c r="AC32" s="69"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="69"/>
-      <c r="AF32" s="69"/>
-      <c r="AG32" s="69"/>
-      <c r="AH32" s="69"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="69"/>
-      <c r="AL32" s="69"/>
-      <c r="AM32" s="69"/>
-      <c r="AN32" s="69"/>
-      <c r="AO32" s="69"/>
-      <c r="AP32" s="69"/>
-      <c r="AQ32" s="69"/>
-      <c r="AR32" s="69"/>
-      <c r="AS32" s="69"/>
-      <c r="AT32" s="69"/>
-      <c r="AU32" s="69"/>
-      <c r="AV32" s="69"/>
-      <c r="AW32" s="69"/>
-      <c r="AX32" s="69"/>
-      <c r="AY32" s="69"/>
-      <c r="AZ32" s="69"/>
-      <c r="BA32" s="69"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="64"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="64"/>
+      <c r="AF32" s="64"/>
+      <c r="AG32" s="64"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="64"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="64"/>
+      <c r="AL32" s="64"/>
+      <c r="AM32" s="64"/>
+      <c r="AN32" s="64"/>
+      <c r="AO32" s="64"/>
+      <c r="AP32" s="64"/>
+      <c r="AQ32" s="64"/>
+      <c r="AR32" s="64"/>
+      <c r="AS32" s="64"/>
+      <c r="AT32" s="64"/>
+      <c r="AU32" s="64"/>
+      <c r="AV32" s="64"/>
+      <c r="AW32" s="64"/>
+      <c r="AX32" s="64"/>
+      <c r="AY32" s="64"/>
+      <c r="AZ32" s="64"/>
+      <c r="BA32" s="64"/>
     </row>
     <row r="33" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="69">
+      <c r="B33" s="64">
         <v>31</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="69"/>
-      <c r="AG33" s="69"/>
-      <c r="AH33" s="69"/>
-      <c r="AI33" s="69"/>
-      <c r="AJ33" s="69"/>
-      <c r="AK33" s="69"/>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="69"/>
-      <c r="AN33" s="69"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
-      <c r="AQ33" s="69"/>
-      <c r="AR33" s="69"/>
-      <c r="AS33" s="69"/>
-      <c r="AT33" s="69"/>
-      <c r="AU33" s="69"/>
-      <c r="AV33" s="69"/>
-      <c r="AW33" s="69"/>
-      <c r="AX33" s="69"/>
-      <c r="AY33" s="69"/>
-      <c r="AZ33" s="69"/>
-      <c r="BA33" s="69"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="64"/>
+      <c r="AF33" s="64"/>
+      <c r="AG33" s="64"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="64"/>
+      <c r="AJ33" s="64"/>
+      <c r="AK33" s="64"/>
+      <c r="AL33" s="64"/>
+      <c r="AM33" s="64"/>
+      <c r="AN33" s="64"/>
+      <c r="AO33" s="64"/>
+      <c r="AP33" s="64"/>
+      <c r="AQ33" s="64"/>
+      <c r="AR33" s="64"/>
+      <c r="AS33" s="64"/>
+      <c r="AT33" s="64"/>
+      <c r="AU33" s="64"/>
+      <c r="AV33" s="64"/>
+      <c r="AW33" s="64"/>
+      <c r="AX33" s="64"/>
+      <c r="AY33" s="64"/>
+      <c r="AZ33" s="64"/>
+      <c r="BA33" s="64"/>
     </row>
     <row r="34" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="69">
+      <c r="B34" s="64">
         <v>32</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
-      <c r="Z34" s="69"/>
-      <c r="AA34" s="69"/>
-      <c r="AB34" s="69"/>
-      <c r="AC34" s="69"/>
-      <c r="AD34" s="69"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="69"/>
-      <c r="AG34" s="69"/>
-      <c r="AH34" s="69"/>
-      <c r="AI34" s="69"/>
-      <c r="AJ34" s="69"/>
-      <c r="AK34" s="69"/>
-      <c r="AL34" s="69"/>
-      <c r="AM34" s="69"/>
-      <c r="AN34" s="69"/>
-      <c r="AO34" s="69"/>
-      <c r="AP34" s="69"/>
-      <c r="AQ34" s="69"/>
-      <c r="AR34" s="69"/>
-      <c r="AS34" s="69"/>
-      <c r="AT34" s="69"/>
-      <c r="AU34" s="69"/>
-      <c r="AV34" s="69"/>
-      <c r="AW34" s="69"/>
-      <c r="AX34" s="69"/>
-      <c r="AY34" s="69"/>
-      <c r="AZ34" s="69"/>
-      <c r="BA34" s="69"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+      <c r="AM34" s="64"/>
+      <c r="AN34" s="64"/>
+      <c r="AO34" s="64"/>
+      <c r="AP34" s="64"/>
+      <c r="AQ34" s="64"/>
+      <c r="AR34" s="64"/>
+      <c r="AS34" s="64"/>
+      <c r="AT34" s="64"/>
+      <c r="AU34" s="64"/>
+      <c r="AV34" s="64"/>
+      <c r="AW34" s="64"/>
+      <c r="AX34" s="64"/>
+      <c r="AY34" s="64"/>
+      <c r="AZ34" s="64"/>
+      <c r="BA34" s="64"/>
     </row>
     <row r="35" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="69">
+      <c r="B35" s="64">
         <v>33</v>
       </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="70"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
-      <c r="U35" s="69"/>
-      <c r="V35" s="69"/>
-      <c r="W35" s="69"/>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="69"/>
-      <c r="Z35" s="69"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="69"/>
-      <c r="AC35" s="69"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="69"/>
-      <c r="AF35" s="69"/>
-      <c r="AG35" s="69"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="69"/>
-      <c r="AJ35" s="69"/>
-      <c r="AK35" s="69"/>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="69"/>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="69"/>
-      <c r="AP35" s="69"/>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="69"/>
-      <c r="AS35" s="69"/>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="69"/>
-      <c r="AV35" s="69"/>
-      <c r="AW35" s="69"/>
-      <c r="AX35" s="69"/>
-      <c r="AY35" s="69"/>
-      <c r="AZ35" s="69"/>
-      <c r="BA35" s="69"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="64"/>
+      <c r="W35" s="64"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="64"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="64"/>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="64"/>
+      <c r="AK35" s="64"/>
+      <c r="AL35" s="64"/>
+      <c r="AM35" s="64"/>
+      <c r="AN35" s="64"/>
+      <c r="AO35" s="64"/>
+      <c r="AP35" s="64"/>
+      <c r="AQ35" s="64"/>
+      <c r="AR35" s="64"/>
+      <c r="AS35" s="64"/>
+      <c r="AT35" s="64"/>
+      <c r="AU35" s="64"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="64"/>
+      <c r="AX35" s="64"/>
+      <c r="AY35" s="64"/>
+      <c r="AZ35" s="64"/>
+      <c r="BA35" s="64"/>
     </row>
     <row r="36" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="69">
+      <c r="B36" s="64">
         <v>34</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="69"/>
-      <c r="AF36" s="69"/>
-      <c r="AG36" s="69"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="69"/>
-      <c r="AJ36" s="69"/>
-      <c r="AK36" s="69"/>
-      <c r="AL36" s="69"/>
-      <c r="AM36" s="69"/>
-      <c r="AN36" s="69"/>
-      <c r="AO36" s="69"/>
-      <c r="AP36" s="69"/>
-      <c r="AQ36" s="69"/>
-      <c r="AR36" s="69"/>
-      <c r="AS36" s="69"/>
-      <c r="AT36" s="69"/>
-      <c r="AU36" s="69"/>
-      <c r="AV36" s="69"/>
-      <c r="AW36" s="69"/>
-      <c r="AX36" s="69"/>
-      <c r="AY36" s="69"/>
-      <c r="AZ36" s="69"/>
-      <c r="BA36" s="69"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="64"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="64"/>
+      <c r="AO36" s="64"/>
+      <c r="AP36" s="64"/>
+      <c r="AQ36" s="64"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="64"/>
+      <c r="AT36" s="64"/>
+      <c r="AU36" s="64"/>
+      <c r="AV36" s="64"/>
+      <c r="AW36" s="64"/>
+      <c r="AX36" s="64"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
     </row>
     <row r="37" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="69">
+      <c r="B37" s="64">
         <v>35</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
-      <c r="T37" s="69"/>
-      <c r="U37" s="69"/>
-      <c r="V37" s="69"/>
-      <c r="W37" s="69"/>
-      <c r="X37" s="69"/>
-      <c r="Y37" s="69"/>
-      <c r="Z37" s="69"/>
-      <c r="AA37" s="69"/>
-      <c r="AB37" s="69"/>
-      <c r="AC37" s="69"/>
-      <c r="AD37" s="69"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="69"/>
-      <c r="AG37" s="69"/>
-      <c r="AH37" s="69"/>
-      <c r="AI37" s="69"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="69"/>
-      <c r="AN37" s="69"/>
-      <c r="AO37" s="69"/>
-      <c r="AP37" s="69"/>
-      <c r="AQ37" s="69"/>
-      <c r="AR37" s="69"/>
-      <c r="AS37" s="69"/>
-      <c r="AT37" s="69"/>
-      <c r="AU37" s="69"/>
-      <c r="AV37" s="69"/>
-      <c r="AW37" s="69"/>
-      <c r="AX37" s="69"/>
-      <c r="AY37" s="69"/>
-      <c r="AZ37" s="69"/>
-      <c r="BA37" s="69"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="64"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="64"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="64"/>
+      <c r="AF37" s="64"/>
+      <c r="AG37" s="64"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="64"/>
+      <c r="AJ37" s="64"/>
+      <c r="AK37" s="64"/>
+      <c r="AL37" s="64"/>
+      <c r="AM37" s="64"/>
+      <c r="AN37" s="64"/>
+      <c r="AO37" s="64"/>
+      <c r="AP37" s="64"/>
+      <c r="AQ37" s="64"/>
+      <c r="AR37" s="64"/>
+      <c r="AS37" s="64"/>
+      <c r="AT37" s="64"/>
+      <c r="AU37" s="64"/>
+      <c r="AV37" s="64"/>
+      <c r="AW37" s="64"/>
+      <c r="AX37" s="64"/>
+      <c r="AY37" s="64"/>
+      <c r="AZ37" s="64"/>
+      <c r="BA37" s="64"/>
     </row>
     <row r="38" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="69">
+      <c r="B38" s="64">
         <v>36</v>
       </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="69"/>
-      <c r="R38" s="69"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
-      <c r="AC38" s="69"/>
-      <c r="AD38" s="69"/>
-      <c r="AE38" s="69"/>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
-      <c r="AH38" s="69"/>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="69"/>
-      <c r="AK38" s="69"/>
-      <c r="AL38" s="69"/>
-      <c r="AM38" s="69"/>
-      <c r="AN38" s="69"/>
-      <c r="AO38" s="69"/>
-      <c r="AP38" s="69"/>
-      <c r="AQ38" s="69"/>
-      <c r="AR38" s="69"/>
-      <c r="AS38" s="69"/>
-      <c r="AT38" s="69"/>
-      <c r="AU38" s="69"/>
-      <c r="AV38" s="69"/>
-      <c r="AW38" s="69"/>
-      <c r="AX38" s="69"/>
-      <c r="AY38" s="69"/>
-      <c r="AZ38" s="69"/>
-      <c r="BA38" s="69"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="64"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="64"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="64"/>
+      <c r="AF38" s="64"/>
+      <c r="AG38" s="64"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="64"/>
+      <c r="AJ38" s="64"/>
+      <c r="AK38" s="64"/>
+      <c r="AL38" s="64"/>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="64"/>
+      <c r="AO38" s="64"/>
+      <c r="AP38" s="64"/>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="64"/>
+      <c r="AS38" s="64"/>
+      <c r="AT38" s="64"/>
+      <c r="AU38" s="64"/>
+      <c r="AV38" s="64"/>
+      <c r="AW38" s="64"/>
+      <c r="AX38" s="64"/>
+      <c r="AY38" s="64"/>
+      <c r="AZ38" s="64"/>
+      <c r="BA38" s="64"/>
     </row>
     <row r="39" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="69">
+      <c r="B39" s="64">
         <v>37</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="69"/>
-      <c r="AI39" s="69"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="69"/>
-      <c r="AL39" s="69"/>
-      <c r="AM39" s="69"/>
-      <c r="AN39" s="69"/>
-      <c r="AO39" s="69"/>
-      <c r="AP39" s="69"/>
-      <c r="AQ39" s="69"/>
-      <c r="AR39" s="69"/>
-      <c r="AS39" s="69"/>
-      <c r="AT39" s="69"/>
-      <c r="AU39" s="69"/>
-      <c r="AV39" s="69"/>
-      <c r="AW39" s="69"/>
-      <c r="AX39" s="69"/>
-      <c r="AY39" s="69"/>
-      <c r="AZ39" s="69"/>
-      <c r="BA39" s="69"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="64"/>
+      <c r="AF39" s="64"/>
+      <c r="AG39" s="64"/>
+      <c r="AH39" s="64"/>
+      <c r="AI39" s="64"/>
+      <c r="AJ39" s="64"/>
+      <c r="AK39" s="64"/>
+      <c r="AL39" s="64"/>
+      <c r="AM39" s="64"/>
+      <c r="AN39" s="64"/>
+      <c r="AO39" s="64"/>
+      <c r="AP39" s="64"/>
+      <c r="AQ39" s="64"/>
+      <c r="AR39" s="64"/>
+      <c r="AS39" s="64"/>
+      <c r="AT39" s="64"/>
+      <c r="AU39" s="64"/>
+      <c r="AV39" s="64"/>
+      <c r="AW39" s="64"/>
+      <c r="AX39" s="64"/>
+      <c r="AY39" s="64"/>
+      <c r="AZ39" s="64"/>
+      <c r="BA39" s="64"/>
     </row>
     <row r="40" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="69">
+      <c r="B40" s="64">
         <v>38</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="69"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="69"/>
-      <c r="AC40" s="69"/>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="69"/>
-      <c r="AF40" s="69"/>
-      <c r="AG40" s="69"/>
-      <c r="AH40" s="69"/>
-      <c r="AI40" s="69"/>
-      <c r="AJ40" s="69"/>
-      <c r="AK40" s="69"/>
-      <c r="AL40" s="69"/>
-      <c r="AM40" s="69"/>
-      <c r="AN40" s="69"/>
-      <c r="AO40" s="69"/>
-      <c r="AP40" s="69"/>
-      <c r="AQ40" s="69"/>
-      <c r="AR40" s="69"/>
-      <c r="AS40" s="69"/>
-      <c r="AT40" s="69"/>
-      <c r="AU40" s="69"/>
-      <c r="AV40" s="69"/>
-      <c r="AW40" s="69"/>
-      <c r="AX40" s="69"/>
-      <c r="AY40" s="69"/>
-      <c r="AZ40" s="69"/>
-      <c r="BA40" s="69"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="64"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="64"/>
+      <c r="AF40" s="64"/>
+      <c r="AG40" s="64"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="64"/>
+      <c r="AJ40" s="64"/>
+      <c r="AK40" s="64"/>
+      <c r="AL40" s="64"/>
+      <c r="AM40" s="64"/>
+      <c r="AN40" s="64"/>
+      <c r="AO40" s="64"/>
+      <c r="AP40" s="64"/>
+      <c r="AQ40" s="64"/>
+      <c r="AR40" s="64"/>
+      <c r="AS40" s="64"/>
+      <c r="AT40" s="64"/>
+      <c r="AU40" s="64"/>
+      <c r="AV40" s="64"/>
+      <c r="AW40" s="64"/>
+      <c r="AX40" s="64"/>
+      <c r="AY40" s="64"/>
+      <c r="AZ40" s="64"/>
+      <c r="BA40" s="64"/>
     </row>
     <row r="41" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="69">
+      <c r="B41" s="64">
         <v>39</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
-      <c r="AH41" s="69"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="69"/>
-      <c r="AK41" s="69"/>
-      <c r="AL41" s="69"/>
-      <c r="AM41" s="69"/>
-      <c r="AN41" s="69"/>
-      <c r="AO41" s="69"/>
-      <c r="AP41" s="69"/>
-      <c r="AQ41" s="69"/>
-      <c r="AR41" s="69"/>
-      <c r="AS41" s="69"/>
-      <c r="AT41" s="69"/>
-      <c r="AU41" s="69"/>
-      <c r="AV41" s="69"/>
-      <c r="AW41" s="69"/>
-      <c r="AX41" s="69"/>
-      <c r="AY41" s="69"/>
-      <c r="AZ41" s="69"/>
-      <c r="BA41" s="69"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="64"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="64"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="64"/>
+      <c r="AF41" s="64"/>
+      <c r="AG41" s="64"/>
+      <c r="AH41" s="64"/>
+      <c r="AI41" s="64"/>
+      <c r="AJ41" s="64"/>
+      <c r="AK41" s="64"/>
+      <c r="AL41" s="64"/>
+      <c r="AM41" s="64"/>
+      <c r="AN41" s="64"/>
+      <c r="AO41" s="64"/>
+      <c r="AP41" s="64"/>
+      <c r="AQ41" s="64"/>
+      <c r="AR41" s="64"/>
+      <c r="AS41" s="64"/>
+      <c r="AT41" s="64"/>
+      <c r="AU41" s="64"/>
+      <c r="AV41" s="64"/>
+      <c r="AW41" s="64"/>
+      <c r="AX41" s="64"/>
+      <c r="AY41" s="64"/>
+      <c r="AZ41" s="64"/>
+      <c r="BA41" s="64"/>
     </row>
     <row r="42" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="69">
+      <c r="B42" s="64">
         <v>40</v>
       </c>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="69"/>
-      <c r="AC42" s="69"/>
-      <c r="AD42" s="69"/>
-      <c r="AE42" s="69"/>
-      <c r="AF42" s="69"/>
-      <c r="AG42" s="69"/>
-      <c r="AH42" s="69"/>
-      <c r="AI42" s="69"/>
-      <c r="AJ42" s="69"/>
-      <c r="AK42" s="69"/>
-      <c r="AL42" s="69"/>
-      <c r="AM42" s="69"/>
-      <c r="AN42" s="69"/>
-      <c r="AO42" s="69"/>
-      <c r="AP42" s="69"/>
-      <c r="AQ42" s="69"/>
-      <c r="AR42" s="69"/>
-      <c r="AS42" s="69"/>
-      <c r="AT42" s="69"/>
-      <c r="AU42" s="69"/>
-      <c r="AV42" s="69"/>
-      <c r="AW42" s="69"/>
-      <c r="AX42" s="69"/>
-      <c r="AY42" s="69"/>
-      <c r="AZ42" s="69"/>
-      <c r="BA42" s="69"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="64"/>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="64"/>
+      <c r="AK42" s="64"/>
+      <c r="AL42" s="64"/>
+      <c r="AM42" s="64"/>
+      <c r="AN42" s="64"/>
+      <c r="AO42" s="64"/>
+      <c r="AP42" s="64"/>
+      <c r="AQ42" s="64"/>
+      <c r="AR42" s="64"/>
+      <c r="AS42" s="64"/>
+      <c r="AT42" s="64"/>
+      <c r="AU42" s="64"/>
+      <c r="AV42" s="64"/>
+      <c r="AW42" s="64"/>
+      <c r="AX42" s="64"/>
+      <c r="AY42" s="64"/>
+      <c r="AZ42" s="64"/>
+      <c r="BA42" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="205">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="V2:BA2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:U3"/>
+    <mergeCell ref="V3:BA3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="V4:BA4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:U5"/>
+    <mergeCell ref="V5:BA5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:U6"/>
+    <mergeCell ref="V6:BA6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:U7"/>
+    <mergeCell ref="V7:BA7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:U8"/>
+    <mergeCell ref="V8:BA8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:U9"/>
+    <mergeCell ref="V9:BA9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:U10"/>
+    <mergeCell ref="V10:BA10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:U11"/>
+    <mergeCell ref="V11:BA11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:U12"/>
+    <mergeCell ref="V12:BA12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:U13"/>
+    <mergeCell ref="V13:BA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:U14"/>
+    <mergeCell ref="V14:BA14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:U15"/>
+    <mergeCell ref="V15:BA15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:U16"/>
+    <mergeCell ref="V16:BA16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:U17"/>
+    <mergeCell ref="V17:BA17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:U18"/>
+    <mergeCell ref="V18:BA18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:U19"/>
+    <mergeCell ref="V19:BA19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:U20"/>
+    <mergeCell ref="V20:BA20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:U21"/>
+    <mergeCell ref="V21:BA21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:U22"/>
+    <mergeCell ref="V22:BA22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:U23"/>
+    <mergeCell ref="V23:BA23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:U24"/>
+    <mergeCell ref="V24:BA24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:U25"/>
+    <mergeCell ref="V25:BA25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:U26"/>
+    <mergeCell ref="V26:BA26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:U27"/>
+    <mergeCell ref="V27:BA27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:U28"/>
+    <mergeCell ref="V28:BA28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:U29"/>
+    <mergeCell ref="V29:BA29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:U30"/>
+    <mergeCell ref="V30:BA30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:U31"/>
+    <mergeCell ref="V31:BA31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:U32"/>
+    <mergeCell ref="V32:BA32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:U33"/>
+    <mergeCell ref="V33:BA33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:U34"/>
+    <mergeCell ref="V34:BA34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:U35"/>
+    <mergeCell ref="V35:BA35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:BA36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:BA37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:BA38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:U39"/>
+    <mergeCell ref="V39:BA39"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="H42:K42"/>
@@ -5121,196 +5311,6 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:U41"/>
     <mergeCell ref="V41:BA41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="V38:BA38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:U39"/>
-    <mergeCell ref="V39:BA39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:BA36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="V37:BA37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:BA34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:BA35"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:U32"/>
-    <mergeCell ref="V32:BA32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:U33"/>
-    <mergeCell ref="V33:BA33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:U30"/>
-    <mergeCell ref="V30:BA30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:U31"/>
-    <mergeCell ref="V31:BA31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="L28:U28"/>
-    <mergeCell ref="V28:BA28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:U29"/>
-    <mergeCell ref="V29:BA29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:U26"/>
-    <mergeCell ref="V26:BA26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="L27:U27"/>
-    <mergeCell ref="V27:BA27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="L24:U24"/>
-    <mergeCell ref="V24:BA24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:U25"/>
-    <mergeCell ref="V25:BA25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="L22:U22"/>
-    <mergeCell ref="V22:BA22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:U23"/>
-    <mergeCell ref="V23:BA23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:U20"/>
-    <mergeCell ref="V20:BA20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="L21:U21"/>
-    <mergeCell ref="V21:BA21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="L18:U18"/>
-    <mergeCell ref="V18:BA18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="L19:U19"/>
-    <mergeCell ref="V19:BA19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:U16"/>
-    <mergeCell ref="V16:BA16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:U17"/>
-    <mergeCell ref="V17:BA17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:U14"/>
-    <mergeCell ref="V14:BA14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:U15"/>
-    <mergeCell ref="V15:BA15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:U12"/>
-    <mergeCell ref="V12:BA12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:U13"/>
-    <mergeCell ref="V13:BA13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:U10"/>
-    <mergeCell ref="V10:BA10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:U11"/>
-    <mergeCell ref="V11:BA11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:U8"/>
-    <mergeCell ref="V8:BA8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:U9"/>
-    <mergeCell ref="V9:BA9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:U6"/>
-    <mergeCell ref="V6:BA6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:U7"/>
-    <mergeCell ref="V7:BA7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:U4"/>
-    <mergeCell ref="V4:BA4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:U5"/>
-    <mergeCell ref="V5:BA5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:U2"/>
-    <mergeCell ref="V2:BA2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:U3"/>
-    <mergeCell ref="V3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5336,7 +5336,7 @@
   <sheetData>
     <row r="1" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H1" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I1" s="36"/>
       <c r="J1" s="36"/>
@@ -5347,60 +5347,60 @@
       <c r="O1" s="36"/>
     </row>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -5664,7 +5664,7 @@
       <c r="AA7" s="47"/>
       <c r="AB7" s="45"/>
       <c r="AC7" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AD7" s="45"/>
       <c r="AE7" s="45"/>
@@ -5726,7 +5726,7 @@
       <c r="AA8" s="47"/>
       <c r="AB8" s="45"/>
       <c r="AC8" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AD8" s="45"/>
       <c r="AE8" s="45"/>
@@ -5759,7 +5759,7 @@
       <c r="D9" s="45"/>
       <c r="E9" s="46"/>
       <c r="F9" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="45"/>
@@ -5819,7 +5819,7 @@
       <c r="D10" s="45"/>
       <c r="E10" s="46"/>
       <c r="F10" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G10" s="50"/>
       <c r="H10" s="45"/>
@@ -5846,7 +5846,7 @@
       <c r="AA10" s="47"/>
       <c r="AB10" s="45"/>
       <c r="AC10" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD10" s="45"/>
       <c r="AE10" s="45"/>
@@ -5888,7 +5888,7 @@
       <c r="K11" s="45"/>
       <c r="L11" s="46"/>
       <c r="M11" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
@@ -5939,7 +5939,7 @@
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G12" s="50"/>
       <c r="H12" s="45"/>
@@ -5948,7 +5948,7 @@
       <c r="K12" s="45"/>
       <c r="L12" s="46"/>
       <c r="M12" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N12" s="45"/>
       <c r="O12" s="45"/>
@@ -7493,60 +7493,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -7662,13 +7662,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -7725,7 +7725,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -7837,7 +7837,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="13"/>
@@ -8162,60 +8162,60 @@
       <c r="BA13" s="3"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -8593,60 +8593,60 @@
       <c r="BA21" s="11"/>
     </row>
     <row r="22" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="72"/>
-      <c r="AM22" s="72"/>
-      <c r="AN22" s="72"/>
-      <c r="AO22" s="72"/>
-      <c r="AP22" s="72"/>
-      <c r="AQ22" s="72"/>
-      <c r="AR22" s="72"/>
-      <c r="AS22" s="72"/>
-      <c r="AT22" s="72"/>
-      <c r="AU22" s="72"/>
-      <c r="AV22" s="72"/>
-      <c r="AW22" s="72"/>
-      <c r="AX22" s="72"/>
-      <c r="AY22" s="72"/>
-      <c r="AZ22" s="72"/>
-      <c r="BA22" s="72"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="75"/>
+      <c r="Y22" s="75"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="75"/>
+      <c r="AC22" s="75"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="75"/>
+      <c r="AK22" s="75"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="75"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="75"/>
+      <c r="AS22" s="75"/>
+      <c r="AT22" s="75"/>
+      <c r="AU22" s="75"/>
+      <c r="AV22" s="75"/>
+      <c r="AW22" s="75"/>
+      <c r="AX22" s="75"/>
+      <c r="AY22" s="75"/>
+      <c r="AZ22" s="75"/>
+      <c r="BA22" s="75"/>
     </row>
     <row r="23" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
@@ -9314,69 +9314,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BC28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:55" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
     </row>
     <row r="3" spans="2:55" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
@@ -9497,42 +9497,42 @@
       <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="73" t="s">
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="73" t="s">
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="75"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="77"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="78"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
@@ -9547,44 +9547,44 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="F6" s="76" t="s">
+        <v>478</v>
+      </c>
+      <c r="F6" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="76" t="s">
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="76" t="s">
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="71" t="s">
         <v>302</v>
       </c>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="78"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="73"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -9599,44 +9599,44 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="F7" s="76" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="76" t="s">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="76" t="s">
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="78"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="73"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
@@ -9651,16 +9651,16 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="F8" s="76" t="s">
+        <v>480</v>
+      </c>
+      <c r="F8" s="71" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="78"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="18" t="s">
         <v>222</v>
       </c>
@@ -9678,17 +9678,17 @@
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="20"/>
-      <c r="AA8" s="76" t="s">
+      <c r="AA8" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="78"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="73"/>
       <c r="AM8" t="s">
         <v>225</v>
       </c>
@@ -9706,16 +9706,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="F9" s="76" t="s">
+        <v>481</v>
+      </c>
+      <c r="F9" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="78"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="18" t="s">
         <v>224</v>
       </c>
@@ -9733,17 +9733,17 @@
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="20"/>
-      <c r="AA9" s="76" t="s">
+      <c r="AA9" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="78"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="73"/>
       <c r="AM9" t="s">
         <v>226</v>
       </c>
@@ -9761,7 +9761,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>227</v>
@@ -9813,7 +9813,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="17" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>254</v>
@@ -9865,7 +9865,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="17" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F12" s="26" t="s">
         <v>271</v>
@@ -9920,7 +9920,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="17" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>301</v>
@@ -9962,7 +9962,7 @@
         <v>300</v>
       </c>
       <c r="AP13" s="36" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2"/>
@@ -9978,10 +9978,10 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G14" s="61"/>
       <c r="H14" s="61"/>
@@ -9991,22 +9991,22 @@
       <c r="L14" s="79" t="s">
         <v>332</v>
       </c>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="78"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73"/>
       <c r="AA14" s="26" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AB14" s="27"/>
       <c r="AC14" s="27"/>
@@ -10074,10 +10074,10 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="17" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F16" s="62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
@@ -10085,7 +10085,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="39"/>
       <c r="L16" s="63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
@@ -10102,7 +10102,7 @@
       <c r="Y16" s="38"/>
       <c r="Z16" s="39"/>
       <c r="AA16" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB16" s="38"/>
       <c r="AC16" s="38"/>
@@ -10126,10 +10126,10 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
@@ -10137,7 +10137,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="39"/>
       <c r="L17" s="63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -10154,7 +10154,7 @@
       <c r="Y17" s="38"/>
       <c r="Z17" s="39"/>
       <c r="AA17" s="62" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AB17" s="38"/>
       <c r="AC17" s="38"/>
@@ -10486,36 +10486,36 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="78"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
       <c r="L25" s="79"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="77"/>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="78"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="77"/>
-      <c r="AC25" s="77"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="77"/>
-      <c r="AF25" s="77"/>
-      <c r="AG25" s="77"/>
-      <c r="AH25" s="77"/>
-      <c r="AI25" s="78"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="72"/>
+      <c r="AF25" s="72"/>
+      <c r="AG25" s="72"/>
+      <c r="AH25" s="72"/>
+      <c r="AI25" s="73"/>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
@@ -10530,36 +10530,36 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="78"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="73"/>
       <c r="L26" s="79"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="77"/>
-      <c r="Z26" s="78"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
-      <c r="AD26" s="77"/>
-      <c r="AE26" s="77"/>
-      <c r="AF26" s="77"/>
-      <c r="AG26" s="77"/>
-      <c r="AH26" s="77"/>
-      <c r="AI26" s="78"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="73"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
@@ -10683,11 +10683,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AA26:AI26"/>
-    <mergeCell ref="AA6:AI6"/>
-    <mergeCell ref="AA7:AI7"/>
-    <mergeCell ref="AA8:AI8"/>
-    <mergeCell ref="AA9:AI9"/>
     <mergeCell ref="B2:BC2"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:Z5"/>
@@ -10704,6 +10699,11 @@
     <mergeCell ref="L25:Z25"/>
     <mergeCell ref="AA5:AI5"/>
     <mergeCell ref="AA25:AI25"/>
+    <mergeCell ref="AA26:AI26"/>
+    <mergeCell ref="AA6:AI6"/>
+    <mergeCell ref="AA7:AI7"/>
+    <mergeCell ref="AA8:AI8"/>
+    <mergeCell ref="AA9:AI9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10715,8 +10715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BA55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="99" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10725,60 +10725,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -10894,13 +10894,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -10957,7 +10957,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="J6" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -11134,7 +11134,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>375</v>
+        <v>489</v>
       </c>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -11456,60 +11456,60 @@
       <c r="BA14" s="3"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -12264,7 +12264,7 @@
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -12516,60 +12516,60 @@
       <c r="BA34" s="11"/>
     </row>
     <row r="35" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="72"/>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="72"/>
-      <c r="AN35" s="72"/>
-      <c r="AO35" s="72"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="72"/>
-      <c r="AZ35" s="72"/>
-      <c r="BA35" s="72"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="75"/>
+      <c r="AP35" s="75"/>
+      <c r="AQ35" s="75"/>
+      <c r="AR35" s="75"/>
+      <c r="AS35" s="75"/>
+      <c r="AT35" s="75"/>
+      <c r="AU35" s="75"/>
+      <c r="AV35" s="75"/>
+      <c r="AW35" s="75"/>
+      <c r="AX35" s="75"/>
+      <c r="AY35" s="75"/>
+      <c r="AZ35" s="75"/>
+      <c r="BA35" s="75"/>
     </row>
     <row r="36" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
@@ -13079,7 +13079,7 @@
         <v>39</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -13699,60 +13699,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -13868,13 +13868,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -14370,60 +14370,60 @@
       <c r="BA13" s="3"/>
     </row>
     <row r="14" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="72"/>
-      <c r="AA14" s="72"/>
-      <c r="AB14" s="72"/>
-      <c r="AC14" s="72"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="75"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="75"/>
+      <c r="AB14" s="75"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="75"/>
+      <c r="AL14" s="75"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="75"/>
+      <c r="AQ14" s="75"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="75"/>
+      <c r="AV14" s="75"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="75"/>
+      <c r="BA14" s="75"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -15534,60 +15534,60 @@
       <c r="BA34" s="11"/>
     </row>
     <row r="35" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="72"/>
-      <c r="AF35" s="72"/>
-      <c r="AG35" s="72"/>
-      <c r="AH35" s="72"/>
-      <c r="AI35" s="72"/>
-      <c r="AJ35" s="72"/>
-      <c r="AK35" s="72"/>
-      <c r="AL35" s="72"/>
-      <c r="AM35" s="72"/>
-      <c r="AN35" s="72"/>
-      <c r="AO35" s="72"/>
-      <c r="AP35" s="72"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="72"/>
-      <c r="AS35" s="72"/>
-      <c r="AT35" s="72"/>
-      <c r="AU35" s="72"/>
-      <c r="AV35" s="72"/>
-      <c r="AW35" s="72"/>
-      <c r="AX35" s="72"/>
-      <c r="AY35" s="72"/>
-      <c r="AZ35" s="72"/>
-      <c r="BA35" s="72"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="75"/>
+      <c r="AL35" s="75"/>
+      <c r="AM35" s="75"/>
+      <c r="AN35" s="75"/>
+      <c r="AO35" s="75"/>
+      <c r="AP35" s="75"/>
+      <c r="AQ35" s="75"/>
+      <c r="AR35" s="75"/>
+      <c r="AS35" s="75"/>
+      <c r="AT35" s="75"/>
+      <c r="AU35" s="75"/>
+      <c r="AV35" s="75"/>
+      <c r="AW35" s="75"/>
+      <c r="AX35" s="75"/>
+      <c r="AY35" s="75"/>
+      <c r="AZ35" s="75"/>
+      <c r="BA35" s="75"/>
     </row>
     <row r="36" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
@@ -16202,7 +16202,7 @@
         <v>39</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -16495,60 +16495,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -16664,13 +16664,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -16727,7 +16727,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -16748,7 +16748,7 @@
       <c r="AA6" s="24"/>
       <c r="AB6" s="13"/>
       <c r="AC6" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
@@ -16808,7 +16808,7 @@
       <c r="AA7" s="24"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
@@ -16870,7 +16870,7 @@
       <c r="AA8" s="24"/>
       <c r="AB8" s="13"/>
       <c r="AC8" s="36" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AD8" s="36"/>
       <c r="AE8" s="36"/>
@@ -16879,11 +16879,11 @@
       <c r="AH8" s="36"/>
       <c r="AI8" s="36"/>
       <c r="AJ8" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AK8" s="36"/>
       <c r="AL8" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM8" s="2"/>
       <c r="AO8" s="13"/>
@@ -16929,7 +16929,7 @@
       <c r="AA9" s="24"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -16992,7 +16992,7 @@
       <c r="AA10" s="24"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -17027,7 +17027,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="13"/>
@@ -17053,7 +17053,7 @@
       <c r="AA11" s="24"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -17088,7 +17088,7 @@
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="6"/>
@@ -17113,7 +17113,7 @@
       <c r="AA12" s="24"/>
       <c r="AB12" s="13"/>
       <c r="AC12" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
@@ -17159,7 +17159,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -17176,7 +17176,7 @@
       <c r="AA13" s="24"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="AK13" s="6"/>
       <c r="AL13" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AM13" s="2"/>
       <c r="AO13" s="13"/>
@@ -17220,7 +17220,7 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -17237,7 +17237,7 @@
       <c r="AA14" s="24"/>
       <c r="AB14" s="13"/>
       <c r="AC14" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
@@ -17246,11 +17246,11 @@
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AM14" s="2"/>
       <c r="AO14" s="13"/>
@@ -17282,7 +17282,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -17299,7 +17299,7 @@
       <c r="AA15" s="24"/>
       <c r="AB15" s="13"/>
       <c r="AC15" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
@@ -17308,11 +17308,11 @@
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="34" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AM15" s="2"/>
       <c r="AO15" s="13"/>
@@ -17335,7 +17335,7 @@
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
       <c r="F16" s="41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="43"/>
@@ -17344,7 +17344,7 @@
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
       <c r="M16" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
@@ -17361,7 +17361,7 @@
       <c r="AA16" s="24"/>
       <c r="AB16" s="13"/>
       <c r="AC16" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AD16" s="6"/>
       <c r="AE16" s="6"/>
@@ -17370,11 +17370,11 @@
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK16"/>
       <c r="AL16" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AM16" s="2"/>
       <c r="AO16" s="13"/>
@@ -17423,7 +17423,7 @@
       <c r="AA17" s="24"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AD17" s="6"/>
       <c r="AE17" s="6"/>
@@ -17432,7 +17432,7 @@
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK17" s="13"/>
       <c r="AL17" s="6"/>
@@ -17457,7 +17457,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
@@ -17516,7 +17516,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
@@ -17571,7 +17571,7 @@
       <c r="K20" s="43"/>
       <c r="L20" s="41"/>
       <c r="M20" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
@@ -17617,7 +17617,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="F21" s="43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
@@ -17626,7 +17626,7 @@
       <c r="K21" s="43"/>
       <c r="L21" s="41"/>
       <c r="M21" s="43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
@@ -17939,60 +17939,60 @@
       <c r="BA26" s="3"/>
     </row>
     <row r="27" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
-      <c r="AM27" s="72"/>
-      <c r="AN27" s="72"/>
-      <c r="AO27" s="72"/>
-      <c r="AP27" s="72"/>
-      <c r="AQ27" s="72"/>
-      <c r="AR27" s="72"/>
-      <c r="AS27" s="72"/>
-      <c r="AT27" s="72"/>
-      <c r="AU27" s="72"/>
-      <c r="AV27" s="72"/>
-      <c r="AW27" s="72"/>
-      <c r="AX27" s="72"/>
-      <c r="AY27" s="72"/>
-      <c r="AZ27" s="72"/>
-      <c r="BA27" s="72"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="75"/>
+      <c r="Z27" s="75"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="75"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="75"/>
+      <c r="AM27" s="75"/>
+      <c r="AN27" s="75"/>
+      <c r="AO27" s="75"/>
+      <c r="AP27" s="75"/>
+      <c r="AQ27" s="75"/>
+      <c r="AR27" s="75"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="75"/>
+      <c r="AU27" s="75"/>
+      <c r="AV27" s="75"/>
+      <c r="AW27" s="75"/>
+      <c r="AX27" s="75"/>
+      <c r="AY27" s="75"/>
+      <c r="AZ27" s="75"/>
+      <c r="BA27" s="75"/>
     </row>
     <row r="28" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -19383,60 +19383,60 @@
       <c r="BA53" s="11"/>
     </row>
     <row r="54" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="72"/>
-      <c r="R54" s="72"/>
-      <c r="S54" s="72"/>
-      <c r="T54" s="72"/>
-      <c r="U54" s="72"/>
-      <c r="V54" s="72"/>
-      <c r="W54" s="72"/>
-      <c r="X54" s="72"/>
-      <c r="Y54" s="72"/>
-      <c r="Z54" s="72"/>
-      <c r="AA54" s="72"/>
-      <c r="AB54" s="72"/>
-      <c r="AC54" s="72"/>
-      <c r="AD54" s="72"/>
-      <c r="AE54" s="72"/>
-      <c r="AF54" s="72"/>
-      <c r="AG54" s="72"/>
-      <c r="AH54" s="72"/>
-      <c r="AI54" s="72"/>
-      <c r="AJ54" s="72"/>
-      <c r="AK54" s="72"/>
-      <c r="AL54" s="72"/>
-      <c r="AM54" s="72"/>
-      <c r="AN54" s="72"/>
-      <c r="AO54" s="72"/>
-      <c r="AP54" s="72"/>
-      <c r="AQ54" s="72"/>
-      <c r="AR54" s="72"/>
-      <c r="AS54" s="72"/>
-      <c r="AT54" s="72"/>
-      <c r="AU54" s="72"/>
-      <c r="AV54" s="72"/>
-      <c r="AW54" s="72"/>
-      <c r="AX54" s="72"/>
-      <c r="AY54" s="72"/>
-      <c r="AZ54" s="72"/>
-      <c r="BA54" s="72"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="75"/>
+      <c r="P54" s="75"/>
+      <c r="Q54" s="75"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="75"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="75"/>
+      <c r="V54" s="75"/>
+      <c r="W54" s="75"/>
+      <c r="X54" s="75"/>
+      <c r="Y54" s="75"/>
+      <c r="Z54" s="75"/>
+      <c r="AA54" s="75"/>
+      <c r="AB54" s="75"/>
+      <c r="AC54" s="75"/>
+      <c r="AD54" s="75"/>
+      <c r="AE54" s="75"/>
+      <c r="AF54" s="75"/>
+      <c r="AG54" s="75"/>
+      <c r="AH54" s="75"/>
+      <c r="AI54" s="75"/>
+      <c r="AJ54" s="75"/>
+      <c r="AK54" s="75"/>
+      <c r="AL54" s="75"/>
+      <c r="AM54" s="75"/>
+      <c r="AN54" s="75"/>
+      <c r="AO54" s="75"/>
+      <c r="AP54" s="75"/>
+      <c r="AQ54" s="75"/>
+      <c r="AR54" s="75"/>
+      <c r="AS54" s="75"/>
+      <c r="AT54" s="75"/>
+      <c r="AU54" s="75"/>
+      <c r="AV54" s="75"/>
+      <c r="AW54" s="75"/>
+      <c r="AX54" s="75"/>
+      <c r="AY54" s="75"/>
+      <c r="AZ54" s="75"/>
+      <c r="BA54" s="75"/>
     </row>
     <row r="55" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
@@ -19889,7 +19889,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -20065,7 +20065,7 @@
         <v>39</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -20286,11 +20286,11 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -21065,7 +21065,7 @@
         <v>39</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -21513,60 +21513,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -21682,13 +21682,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -21745,7 +21745,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -21861,15 +21861,15 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="J8" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
@@ -21924,16 +21924,16 @@
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -22111,7 +22111,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -22169,7 +22169,7 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -22195,7 +22195,7 @@
       <c r="AJ13" s="2"/>
       <c r="AK13"/>
       <c r="AL13" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AM13" s="2"/>
       <c r="AO13" s="13"/>
@@ -22218,7 +22218,7 @@
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
       <c r="F14" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="13"/>
@@ -22253,7 +22253,7 @@
       <c r="AJ14" s="2"/>
       <c r="AK14"/>
       <c r="AL14" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM14" s="2"/>
       <c r="AO14" s="13"/>
@@ -22334,7 +22334,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="13"/>
@@ -22365,7 +22365,7 @@
       <c r="AJ16" s="2"/>
       <c r="AK16"/>
       <c r="AL16" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM16" s="2"/>
       <c r="AO16" s="13"/>
@@ -22390,7 +22390,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="13"/>
@@ -22446,7 +22446,7 @@
       <c r="F18" s="15"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="13"/>
@@ -22503,7 +22503,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="13"/>
@@ -22560,7 +22560,7 @@
       <c r="F20" s="15"/>
       <c r="G20" s="4"/>
       <c r="H20" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="13"/>
@@ -22617,7 +22617,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="4"/>
       <c r="H21" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="13"/>
@@ -22955,60 +22955,60 @@
       <c r="BA27" s="3"/>
     </row>
     <row r="28" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="72"/>
-      <c r="AN28" s="72"/>
-      <c r="AO28" s="72"/>
-      <c r="AP28" s="72"/>
-      <c r="AQ28" s="72"/>
-      <c r="AR28" s="72"/>
-      <c r="AS28" s="72"/>
-      <c r="AT28" s="72"/>
-      <c r="AU28" s="72"/>
-      <c r="AV28" s="72"/>
-      <c r="AW28" s="72"/>
-      <c r="AX28" s="72"/>
-      <c r="AY28" s="72"/>
-      <c r="AZ28" s="72"/>
-      <c r="BA28" s="72"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
+      <c r="AC28" s="75"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="75"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="75"/>
+      <c r="AL28" s="75"/>
+      <c r="AM28" s="75"/>
+      <c r="AN28" s="75"/>
+      <c r="AO28" s="75"/>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="75"/>
+      <c r="AR28" s="75"/>
+      <c r="AS28" s="75"/>
+      <c r="AT28" s="75"/>
+      <c r="AU28" s="75"/>
+      <c r="AV28" s="75"/>
+      <c r="AW28" s="75"/>
+      <c r="AX28" s="75"/>
+      <c r="AY28" s="75"/>
+      <c r="AZ28" s="75"/>
+      <c r="BA28" s="75"/>
     </row>
     <row r="29" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
@@ -23380,7 +23380,7 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
       <c r="AI35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AJ35" s="2"/>
       <c r="AK35" s="2"/>
@@ -23438,7 +23438,7 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
       <c r="AI36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
@@ -23554,7 +23554,7 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
       <c r="AI38" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AJ38" s="2"/>
       <c r="AK38" s="2"/>
@@ -24159,7 +24159,7 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="Q50" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -24208,7 +24208,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="Q51" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -24305,7 +24305,7 @@
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="Q53" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -25003,60 +25003,60 @@
       <c r="BA66" s="11"/>
     </row>
     <row r="67" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="71" t="s">
+      <c r="B67" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="72"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="72"/>
-      <c r="L67" s="72"/>
-      <c r="M67" s="72"/>
-      <c r="N67" s="72"/>
-      <c r="O67" s="72"/>
-      <c r="P67" s="72"/>
-      <c r="Q67" s="72"/>
-      <c r="R67" s="72"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="72"/>
-      <c r="V67" s="72"/>
-      <c r="W67" s="72"/>
-      <c r="X67" s="72"/>
-      <c r="Y67" s="72"/>
-      <c r="Z67" s="72"/>
-      <c r="AA67" s="72"/>
-      <c r="AB67" s="72"/>
-      <c r="AC67" s="72"/>
-      <c r="AD67" s="72"/>
-      <c r="AE67" s="72"/>
-      <c r="AF67" s="72"/>
-      <c r="AG67" s="72"/>
-      <c r="AH67" s="72"/>
-      <c r="AI67" s="72"/>
-      <c r="AJ67" s="72"/>
-      <c r="AK67" s="72"/>
-      <c r="AL67" s="72"/>
-      <c r="AM67" s="72"/>
-      <c r="AN67" s="72"/>
-      <c r="AO67" s="72"/>
-      <c r="AP67" s="72"/>
-      <c r="AQ67" s="72"/>
-      <c r="AR67" s="72"/>
-      <c r="AS67" s="72"/>
-      <c r="AT67" s="72"/>
-      <c r="AU67" s="72"/>
-      <c r="AV67" s="72"/>
-      <c r="AW67" s="72"/>
-      <c r="AX67" s="72"/>
-      <c r="AY67" s="72"/>
-      <c r="AZ67" s="72"/>
-      <c r="BA67" s="72"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="75"/>
+      <c r="V67" s="75"/>
+      <c r="W67" s="75"/>
+      <c r="X67" s="75"/>
+      <c r="Y67" s="75"/>
+      <c r="Z67" s="75"/>
+      <c r="AA67" s="75"/>
+      <c r="AB67" s="75"/>
+      <c r="AC67" s="75"/>
+      <c r="AD67" s="75"/>
+      <c r="AE67" s="75"/>
+      <c r="AF67" s="75"/>
+      <c r="AG67" s="75"/>
+      <c r="AH67" s="75"/>
+      <c r="AI67" s="75"/>
+      <c r="AJ67" s="75"/>
+      <c r="AK67" s="75"/>
+      <c r="AL67" s="75"/>
+      <c r="AM67" s="75"/>
+      <c r="AN67" s="75"/>
+      <c r="AO67" s="75"/>
+      <c r="AP67" s="75"/>
+      <c r="AQ67" s="75"/>
+      <c r="AR67" s="75"/>
+      <c r="AS67" s="75"/>
+      <c r="AT67" s="75"/>
+      <c r="AU67" s="75"/>
+      <c r="AV67" s="75"/>
+      <c r="AW67" s="75"/>
+      <c r="AX67" s="75"/>
+      <c r="AY67" s="75"/>
+      <c r="AZ67" s="75"/>
+      <c r="BA67" s="75"/>
     </row>
     <row r="68" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
@@ -25288,7 +25288,7 @@
       </c>
       <c r="I72" s="2"/>
       <c r="M72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -25343,7 +25343,7 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="M73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -25397,7 +25397,7 @@
       <c r="I74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -25451,7 +25451,7 @@
       <c r="I75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -25670,7 +25670,7 @@
         <v>39</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -26118,60 +26118,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -26287,13 +26287,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -26350,7 +26350,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -26461,7 +26461,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -26472,7 +26472,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="M8" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -26525,7 +26525,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -26573,18 +26573,18 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -26848,60 +26848,60 @@
       <c r="BA14" s="3"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -27393,60 +27393,60 @@
       <c r="BA24" s="11"/>
     </row>
     <row r="25" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="72"/>
-      <c r="AA25" s="72"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="72"/>
-      <c r="AI25" s="72"/>
-      <c r="AJ25" s="72"/>
-      <c r="AK25" s="72"/>
-      <c r="AL25" s="72"/>
-      <c r="AM25" s="72"/>
-      <c r="AN25" s="72"/>
-      <c r="AO25" s="72"/>
-      <c r="AP25" s="72"/>
-      <c r="AQ25" s="72"/>
-      <c r="AR25" s="72"/>
-      <c r="AS25" s="72"/>
-      <c r="AT25" s="72"/>
-      <c r="AU25" s="72"/>
-      <c r="AV25" s="72"/>
-      <c r="AW25" s="72"/>
-      <c r="AX25" s="72"/>
-      <c r="AY25" s="72"/>
-      <c r="AZ25" s="72"/>
-      <c r="BA25" s="72"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="75"/>
+      <c r="AK25" s="75"/>
+      <c r="AL25" s="75"/>
+      <c r="AM25" s="75"/>
+      <c r="AN25" s="75"/>
+      <c r="AO25" s="75"/>
+      <c r="AP25" s="75"/>
+      <c r="AQ25" s="75"/>
+      <c r="AR25" s="75"/>
+      <c r="AS25" s="75"/>
+      <c r="AT25" s="75"/>
+      <c r="AU25" s="75"/>
+      <c r="AV25" s="75"/>
+      <c r="AW25" s="75"/>
+      <c r="AX25" s="75"/>
+      <c r="AY25" s="75"/>
+      <c r="AZ25" s="75"/>
+      <c r="BA25" s="75"/>
     </row>
     <row r="26" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
@@ -27621,7 +27621,7 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -27844,7 +27844,7 @@
         <v>39</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -28071,7 +28071,7 @@
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -28344,7 +28344,7 @@
         <v>241</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -28613,13 +28613,13 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -28676,7 +28676,7 @@
         <v>241</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -29020,60 +29020,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -29189,13 +29189,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -29252,7 +29252,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -29375,7 +29375,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -29428,7 +29428,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -29474,19 +29474,19 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="F10" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
@@ -29749,60 +29749,60 @@
       <c r="BA14" s="3"/>
     </row>
     <row r="15" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="72"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="72"/>
-      <c r="AL15" s="72"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="72"/>
-      <c r="AP15" s="72"/>
-      <c r="AQ15" s="72"/>
-      <c r="AR15" s="72"/>
-      <c r="AS15" s="72"/>
-      <c r="AT15" s="72"/>
-      <c r="AU15" s="72"/>
-      <c r="AV15" s="72"/>
-      <c r="AW15" s="72"/>
-      <c r="AX15" s="72"/>
-      <c r="AY15" s="72"/>
-      <c r="AZ15" s="72"/>
-      <c r="BA15" s="72"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="75"/>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="75"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="75"/>
+      <c r="AQ15" s="75"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="75"/>
+      <c r="AV15" s="75"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="75"/>
+      <c r="BA15" s="75"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
@@ -30182,60 +30182,60 @@
       <c r="BA22" s="11"/>
     </row>
     <row r="23" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="72"/>
-      <c r="AM23" s="72"/>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="72"/>
-      <c r="AP23" s="72"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="72"/>
-      <c r="AS23" s="72"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="72"/>
-      <c r="AV23" s="72"/>
-      <c r="AW23" s="72"/>
-      <c r="AX23" s="72"/>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="72"/>
-      <c r="BA23" s="72"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="75"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="75"/>
+      <c r="AP23" s="75"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="75"/>
+      <c r="AU23" s="75"/>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="75"/>
+      <c r="AX23" s="75"/>
+      <c r="AY23" s="75"/>
+      <c r="AZ23" s="75"/>
+      <c r="BA23" s="75"/>
     </row>
     <row r="24" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
@@ -30577,7 +30577,7 @@
         <v>241</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -30854,7 +30854,7 @@
         <v>241</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -31136,60 +31136,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
     </row>
     <row r="3" spans="2:53" s="7" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="12"/>
@@ -31305,13 +31305,13 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="F5" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="36"/>
       <c r="J5" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="13"/>
@@ -31368,7 +31368,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -31479,7 +31479,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="F8" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="13"/>
@@ -31496,7 +31496,7 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -31532,7 +31532,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="F9" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="13"/>
@@ -31549,7 +31549,7 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
@@ -31607,7 +31607,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -31648,7 +31648,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="13"/>
@@ -31665,7 +31665,7 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
@@ -31922,60 +31922,60 @@
       <c r="BA15" s="3"/>
     </row>
     <row r="16" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="72"/>
-      <c r="AA16" s="72"/>
-      <c r="AB16" s="72"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="72"/>
-      <c r="AI16" s="72"/>
-      <c r="AJ16" s="72"/>
-      <c r="AK16" s="72"/>
-      <c r="AL16" s="72"/>
-      <c r="AM16" s="72"/>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="72"/>
-      <c r="AT16" s="72"/>
-      <c r="AU16" s="72"/>
-      <c r="AV16" s="72"/>
-      <c r="AW16" s="72"/>
-      <c r="AX16" s="72"/>
-      <c r="AY16" s="72"/>
-      <c r="AZ16" s="72"/>
-      <c r="BA16" s="72"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="75"/>
+      <c r="AL16" s="75"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="75"/>
+      <c r="AQ16" s="75"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="75"/>
+      <c r="AU16" s="75"/>
+      <c r="AV16" s="75"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="75"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="75"/>
+      <c r="BA16" s="75"/>
     </row>
     <row r="17" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -32355,60 +32355,60 @@
       <c r="BA23" s="11"/>
     </row>
     <row r="24" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="72"/>
-      <c r="AA24" s="72"/>
-      <c r="AB24" s="72"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="72"/>
-      <c r="AJ24" s="72"/>
-      <c r="AK24" s="72"/>
-      <c r="AL24" s="72"/>
-      <c r="AM24" s="72"/>
-      <c r="AN24" s="72"/>
-      <c r="AO24" s="72"/>
-      <c r="AP24" s="72"/>
-      <c r="AQ24" s="72"/>
-      <c r="AR24" s="72"/>
-      <c r="AS24" s="72"/>
-      <c r="AT24" s="72"/>
-      <c r="AU24" s="72"/>
-      <c r="AV24" s="72"/>
-      <c r="AW24" s="72"/>
-      <c r="AX24" s="72"/>
-      <c r="AY24" s="72"/>
-      <c r="AZ24" s="72"/>
-      <c r="BA24" s="72"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="75"/>
+      <c r="AJ24" s="75"/>
+      <c r="AK24" s="75"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="75"/>
+      <c r="AP24" s="75"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="75"/>
+      <c r="AT24" s="75"/>
+      <c r="AU24" s="75"/>
+      <c r="AV24" s="75"/>
+      <c r="AW24" s="75"/>
+      <c r="AX24" s="75"/>
+      <c r="AY24" s="75"/>
+      <c r="AZ24" s="75"/>
+      <c r="BA24" s="75"/>
     </row>
     <row r="25" spans="2:53" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
